--- a/CREST syndrome_vs_Cardiac: ACS.xlsx
+++ b/CREST syndrome_vs_Cardiac: ACS.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -467,29 +467,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and are not typically associated with Cardiac: ACS.</t>
+          <t>These skin manifestations are characteristic of CREST syndrome and are not typically associated with Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sudden onset of chest pain, often described as pressure or squeezing</t>
+          <t>Acute onset of chest pain, often described as pressure or squeezing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>This is a classic presentation of Cardiac: ACS, while such acute chest pain is not typical in CREST syndrome.</t>
+          <t>This is a classic presentation of Cardiac: ACS, while it is not a typical symptom of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Onset of symptoms associated with Raynaud's phenomenon</t>
+          <t>Reports of Raynaud's phenomenon (color changes in fingers/toes with cold or stress)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom in CREST syndrome, whereas it is not a feature of Cardiac: ACS.</t>
+          <t>Raynaud's phenomenon is a hallmark of CREST syndrome, whereas it is not a feature of Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,66 +506,66 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gradual onset of symptoms over weeks to months</t>
+          <t>Gastrointestinal symptoms such as esophageal dysmotility or reflux</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CREST syndrome often presents with a gradual progression of symptoms, while Cardiac: ACS typically presents acutely.</t>
+          <t>Gastrointestinal involvement is common in CREST syndrome but not in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Accompanying symptoms such as shortness of breath or diaphoresis</t>
+          <t>Associated symptoms such as diaphoresis (sweating) or nausea</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>These symptoms are indicative of Cardiac: ACS and are not typically present in CREST syndrome.</t>
+          <t>These symptoms are indicative of Cardiac: ACS and are not characteristic of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Symptoms of gastrointestinal involvement such as dysphagia or reflux</t>
+          <t>Pulmonary hypertension symptoms such as exertional dyspnea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gastrointestinal symptoms are common in CREST syndrome but are not characteristic of Cardiac: ACS.</t>
+          <t>Pulmonary hypertension can occur in CREST syndrome and is not a typical presentation in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of risk factors such as hypertension, diabetes, or smoking</t>
+          <t>History of risk factors such as hypertension, hyperlipidemia, or smoking</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>These risk factors are strongly associated with Cardiac: ACS but not with CREST syndrome.</t>
+          <t>These risk factors are strongly associated with Cardiac: ACS and less relevant to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension or interstitial lung disease</t>
+          <t>History of autoimmune disease or connective tissue disorder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>These conditions are associated with CREST syndrome and are not features of Cardiac: ACS.</t>
+          <t>A background of autoimmune conditions supports CREST syndrome, while it is less relevant for Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Symptoms occurring during physical exertion or emotional stress</t>
+          <t>Symptoms worsening with exertion or stress</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>This pattern is characteristic of Cardiac: ACS, while CREST syndrome symptoms do not typically correlate with exertion.</t>
+          <t>Exertional symptoms are typical for Cardiac: ACS, while CREST syndrome symptoms are often more chronic and less related to exertion.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of scleroderma or related autoimmune diseases</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A history of scleroderma or other autoimmune conditions strongly supports CREST syndrome, as it is a subset of systemic sclerosis.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>History of coronary artery disease</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A history of coronary artery disease is a strong indicator of Cardiac: ACS, while it is not relevant to CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Raynaud's phenomenon is a classic symptom associated with CREST syndrome, distinguishing it from Cardiac: ACS.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Recent episodes of chest pain or discomfort</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acute chest pain is a hallmark of Cardiac: ACS, whereas it is not a typical presentation in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>History of esophageal dysmotility</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Esophageal dysmotility is common in CREST syndrome and less likely to be present in patients with Cardiac: ACS.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Use of antiplatelet medications (e.g., aspirin, clopidogrel)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The use of antiplatelet medications is more indicative of a history of cardiac issues, supporting Cardiac: ACS over CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Use of medications for autoimmune conditions (e.g., methotrexate, corticosteroids)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Medications used to treat autoimmune diseases suggest a diagnosis of CREST syndrome rather than Cardiac: ACS.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>History of myocardial infarction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A previous myocardial infarction is a significant risk factor for Cardiac: ACS and not relevant to CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension is a complication of CREST syndrome and is not typically associated with Cardiac: ACS.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Presence of risk factors for cardiovascular disease (e.g., hypertension, diabetes)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Risk factors for cardiovascular disease strongly support a diagnosis of Cardiac: ACS, distinguishing it from CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -636,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A personal or family history of autoimmune diseases, such as systemic sclerosis or lupus, is more indicative of CREST syndrome, which is a subset of systemic sclerosis.</t>
+          <t>A history of autoimmune diseases, such as systemic sclerosis or lupus, is more indicative of CREST syndrome, which is a subset of scleroderma, than of Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -646,19 +779,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A significant history of smoking is a major risk factor for Cardiac: ACS and is less commonly associated with CREST syndrome.</t>
+          <t>A history of smoking is a significant risk factor for Cardiac: ACS, whereas it is not a relevant factor for CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupation with potential exposure to silica or other environmental toxins</t>
+          <t>Presence of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certain occupations may increase the risk of developing CREST syndrome due to environmental exposures, which is less relevant in the context of Cardiac: ACS.</t>
+          <t>Raynaud's phenomenon, characterized by episodic color changes in fingers and toes in response to cold or stress, is a classic feature of CREST syndrome and not typically associated with Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -668,19 +801,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A sedentary lifestyle is a known risk factor for cardiovascular diseases, including Cardiac: ACS, and is not typically linked to CREST syndrome.</t>
+          <t>A sedentary lifestyle is associated with increased cardiovascular risk, supporting Cardiac: ACS over CREST syndrome, which is not primarily influenced by lifestyle in this manner.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of Raynaud's phenomenon</t>
+          <t>Family history of scleroderma or related conditions</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is a common symptom in CREST syndrome and is not typically associated with Cardiac: ACS.</t>
+          <t>A family history of scleroderma or related autoimmune conditions supports the diagnosis of CREST syndrome, as genetic predisposition plays a role, unlike in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -690,19 +823,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A family history of coronary artery disease significantly increases the likelihood of Cardiac: ACS, while it is less relevant for CREST syndrome.</t>
+          <t>A family history of coronary artery disease is a strong indicator for Cardiac: ACS, while it does not correlate with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of CREST syndrome or related connective tissue diseases</t>
+          <t>Occupational exposure to silica or other toxins</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of CREST syndrome or related conditions suggests a genetic predisposition, which is more relevant than the familial risk factors for Cardiac: ACS.</t>
+          <t>Occupational exposure to silica is associated with an increased risk of scleroderma, thus supporting CREST syndrome over Cardiac: ACS, which is less influenced by occupational factors.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +845,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Obesity is a well-established risk factor for Cardiac: ACS, whereas it does not have a direct correlation with CREST syndrome.</t>
+          <t>Obesity is a known risk factor for Cardiac: ACS, making it more likely than CREST syndrome, which is not directly linked to body weight.</t>
         </is>
       </c>
     </row>
@@ -724,7 +857,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While smoking is a risk factor for Cardiac: ACS, non-smoker status may be more common in patients with CREST syndrome, as lifestyle factors differ between the two conditions.</t>
+          <t>Non-smoker status may favor CREST syndrome, as smoking is a risk factor for Cardiac: ACS, making it less likely in patients with CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>High-stress jobs can contribute to the risk of Cardiac: ACS due to stress-related cardiovascular effects, which are not a factor in CREST syndrome.</t>
+          <t>A high-stress occupation can contribute to the risk of Cardiac: ACS due to stress-related cardiovascular effects, unlike CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -782,34 +915,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly, telangiectasia)</t>
+          <t>Skin changes such as sclerodactyly or telangiectasia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These specific skin findings are characteristic of CREST syndrome and are not typically present in Cardiac: ACS.</t>
+          <t>These skin findings are characteristic of CREST syndrome and are not typically present in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chest pain (typical angina)</t>
+          <t>Chest pain described as pressure or squeezing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Classic chest pain that is exertional and relieved by rest is a strong indicator of Cardiac: ACS, while not typical for CREST syndrome.</t>
+          <t>This type of chest pain is typical for Cardiac: ACS and is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Pulmonary hypertension on physical exam</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated blood pressure in the pulmonary arteries is more indicative of CREST syndrome, whereas ACS does not typically present with this finding.</t>
+          <t>Pulmonary hypertension can be a complication of CREST syndrome, while it is not a feature of Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -819,7 +952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Diaphoresis is a common physical exam finding in ACS due to sympathetic activation, which is not a feature of CREST syndrome.</t>
+          <t>Diaphoresis is a common physical exam finding in Cardiac: ACS, whereas it is not associated with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -831,61 +964,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The presence of Raynaud's phenomenon, characterized by episodic color changes in fingers or toes, is a hallmark of CREST syndrome and not associated with ACS.</t>
+          <t>Raynaud's phenomenon is a classic symptom of CREST syndrome, which is not associated with Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Elevated heart rate (tachycardia)</t>
+          <t>Elevated blood pressure</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tachycardia is frequently observed in ACS due to pain and stress, whereas it is less common in CREST syndrome.</t>
+          <t>Hypertension can be a risk factor for Cardiac: ACS and is less likely to be a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Digital ulcers</t>
+          <t>Digital ulcers or ischemic changes in fingers</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The presence of digital ulcers is a common manifestation of CREST syndrome, while such findings are not seen in ACS.</t>
+          <t>These findings are indicative of vascular involvement in CREST syndrome, contrasting with the acute coronary symptoms of Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>S3 heart sound</t>
+          <t>Abnormal heart sounds (e.g., S3 gallop)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An S3 heart sound may indicate heart failure or volume overload, which is more consistent with ACS than with CREST syndrome.</t>
+          <t>Abnormal heart sounds can indicate heart failure or ischemia, supporting Cardiac: ACS over CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decreased capillary refill time</t>
+          <t>Normal heart sounds with no murmurs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Decreased capillary refill time can indicate peripheral vascular involvement in CREST syndrome, contrasting with the typical findings in ACS.</t>
+          <t>Normal heart sounds may suggest a non-cardiac cause of symptoms, supporting CREST syndrome over Cardiac: ACS, which often presents with abnormal heart sounds.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Signs of heart failure (e.g., jugular venous distension)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypotension can occur in ACS due to cardiogenic shock, while it is not a typical finding in CREST syndrome.</t>
+          <t>Signs of heart failure are more indicative of Cardiac: ACS, while CREST syndrome does not typically present with these findings.</t>
         </is>
       </c>
     </row>
@@ -933,12 +1066,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive antinuclear antibody (ANA) test</t>
+          <t>Positive anti-centromere antibodies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A positive ANA test is commonly associated with autoimmune conditions, including CREST syndrome, and is less likely to be positive in Cardiac: ACS.</t>
+          <t>The presence of anti-centromere antibodies is highly associated with CREST syndrome and is not typically found in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -948,85 +1081,85 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elevated troponin levels indicate myocardial injury, which is a key feature of Cardiac: ACS and not typically seen in CREST syndrome.</t>
+          <t>Elevated troponin levels indicate myocardial injury, which is characteristic of Cardiac: ACS and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elevated anti-centromere antibodies</t>
+          <t>Pulmonary hypertension on echocardiogram</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are highly specific for CREST syndrome and are not typically present in Cardiac: ACS.</t>
+          <t>Echocardiographic evidence of pulmonary hypertension is common in CREST syndrome but not a feature of Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ECG changes consistent with ischemia</t>
+          <t>ST-segment elevation on ECG</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Electrocardiogram (ECG) changes such as ST-segment elevation or depression are indicative of Cardiac: ACS and are not present in CREST syndrome.</t>
+          <t>ST-segment elevation on an electrocardiogram (ECG) is a classic finding in Cardiac: ACS, distinguishing it from CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>Skin calcinosis on imaging</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Restrictive lung disease is a common pulmonary manifestation of CREST syndrome, whereas Cardiac: ACS does not typically present with pulmonary function abnormalities.</t>
+          <t>Calcinosis is a characteristic finding in CREST syndrome, whereas it is not associated with Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coronary angiography showing significant stenosis</t>
+          <t>Coronary artery stenosis on angiography</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Significant coronary artery stenosis found on angiography is a direct indicator of Cardiac: ACS, whereas CREST syndrome does not involve coronary artery disease.</t>
+          <t>The presence of significant coronary artery stenosis is a definitive finding in Cardiac: ACS, whereas it is not relevant to CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Esophageal motility studies showing decreased peristalsis</t>
+          <t>Esophageal motility disorder on manometry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Decreased peristalsis is characteristic of esophageal involvement in CREST syndrome, which is not a feature of Cardiac: ACS.</t>
+          <t>Esophageal motility issues are prevalent in CREST syndrome and are not typically seen in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels</t>
+          <t>Elevated creatine kinase-MB (CK-MB)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elevated CK levels can indicate muscle damage, including myocardial infarction, which is relevant to Cardiac: ACS but not to CREST syndrome.</t>
+          <t>Elevated levels of creatine kinase-MB are indicative of myocardial damage and are associated with Cardiac: ACS, not CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skin biopsy showing sclerodactyly</t>
+          <t>Nailfold capillaroscopy showing capillary abnormalities</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark skin finding in CREST syndrome and is not associated with Cardiac: ACS.</t>
+          <t>Capillary abnormalities observed in nailfold capillaroscopy are indicative of CREST syndrome and not present in Cardiac: ACS.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1036,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Cardiomegaly on chest X-ray can indicate heart failure or other cardiac conditions associated with Cardiac: ACS, which is not a feature of CREST syndrome.</t>
+          <t>Cardiomegaly on chest X-ray can indicate heart failure due to Cardiac: ACS, which is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
